--- a/data/trans_media/Q02G_FES-Provincia-trans_media.xlsx
+++ b/data/trans_media/Q02G_FES-Provincia-trans_media.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,36; 13,4</t>
+          <t>2,75; 14,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 8,64</t>
+          <t>2,96; 8,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,7; 8,74</t>
+          <t>3,7; 8,86</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,37</t>
+          <t>0,61; 2,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,22 +729,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,61; 5,97</t>
+          <t>3,58; 5,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 5,82</t>
+          <t>0,46; 5,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,8; 4,93</t>
+          <t>2,85; 4,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 5,43</t>
+          <t>0,59; 5,93</t>
         </is>
       </c>
     </row>
@@ -809,22 +809,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,98; 7,02</t>
+          <t>1,98; 7,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,13</t>
+          <t>1,7; 4,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 5,4</t>
+          <t>1,85; 5,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,79; 3,67</t>
+          <t>1,88; 3,69</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,83; 8,14</t>
+          <t>3,62; 7,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 3,54</t>
+          <t>1,05; 3,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,8; 6,3</t>
+          <t>3,79; 6,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,07; 8,05</t>
+          <t>3,2; 8,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,06; 6,14</t>
+          <t>4,11; 6,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,78; 6,53</t>
+          <t>2,76; 6,46</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,28</t>
+          <t>1,04; 2,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,08; 6,47</t>
+          <t>2,47; 6,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,34; 2,4</t>
+          <t>1,37; 2,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,51; 6,42</t>
+          <t>2,54; 6,46</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,77; 6,02</t>
+          <t>2,71; 6,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,66; 3,12</t>
+          <t>1,66; 3,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,43; 5,71</t>
+          <t>2,36; 5,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,15</t>
+          <t>1,74; 3,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,9; 5,12</t>
+          <t>2,79; 5,19</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,54</t>
+          <t>1,02; 5,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1129,22 +1129,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,43; 4,12</t>
+          <t>1,37; 3,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,18; 9,74</t>
+          <t>3,12; 9,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,67; 3,9</t>
+          <t>1,64; 3,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,65; 7,33</t>
+          <t>2,77; 7,76</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1199,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,62; 6,3</t>
+          <t>1,74; 6,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,78</t>
+          <t>2,05; 4,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,79; 5,93</t>
+          <t>1,74; 5,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,95; 3,54</t>
+          <t>1,93; 3,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,04; 5,04</t>
+          <t>2,04; 5,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,06; 3,61</t>
+          <t>2,15; 3,57</t>
         </is>
       </c>
     </row>
@@ -1279,32 +1279,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,22</t>
+          <t>2,38; 4,29</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,73; 5,43</t>
+          <t>2,79; 5,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,2; 4,39</t>
+          <t>3,19; 4,48</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,29; 4,92</t>
+          <t>3,37; 5,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,1; 4,17</t>
+          <t>3,15; 4,22</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,4; 4,83</t>
+          <t>3,28; 4,72</t>
         </is>
       </c>
     </row>
